--- a/data/trans_camb/P5_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-2,93</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -0,02</t>
+          <t>-10,59; 0,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 5,29</t>
+          <t>-6,3; 5,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,57</t>
+          <t>-7,02; 0,83</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-4,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-3,07%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -0,03</t>
+          <t>-10,88; 0,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 5,7</t>
+          <t>-6,51; 5,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 0,6</t>
+          <t>-7,28; 0,89</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,55</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 2,29</t>
+          <t>-20,94; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,41</t>
+          <t>-7,41; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,83</t>
+          <t>-10,95; 0,53</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-3,74%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 2,25</t>
+          <t>-21,82; 1,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 2,63</t>
+          <t>-7,76; 3,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 0,86</t>
+          <t>-11,58; 0,56</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 4,34</t>
+          <t>-4,39; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 3,72</t>
+          <t>-5,46; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,65</t>
+          <t>-3,83; 2,1</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>-0,77%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,72</t>
+          <t>-4,6; 4,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,11</t>
+          <t>-5,74; 3,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 2,85</t>
+          <t>-4,01; 2,27</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 1,26</t>
+          <t>-6,59; 0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,07</t>
+          <t>-5,1; 1,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,6</t>
+          <t>-4,54; 0,44</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>-1,76%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,27</t>
+          <t>-6,8; 1,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,18</t>
+          <t>-5,21; 1,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,63</t>
+          <t>-4,64; 0,46</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,61</t>
+          <t>-4,67; 5,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 1,7</t>
+          <t>-6,15; 1,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,81</t>
+          <t>-3,8; 2,13</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 5,15</t>
+          <t>-4,93; 5,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,77</t>
+          <t>-6,28; 1,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,93</t>
+          <t>-3,93; 2,27</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-2,91</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -0,54</t>
+          <t>-8,35; 0,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,03</t>
+          <t>-5,99; 1,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; -0,33</t>
+          <t>-5,99; -0,32</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>-3,94%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>-3,0%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -0,59</t>
+          <t>-8,55; 0,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,05</t>
+          <t>-6,31; 1,45</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -0,35</t>
+          <t>-6,13; -0,35</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,22</t>
+          <t>-5,42; -0,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,7; -0,04</t>
+          <t>-3,46; 0,04</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,74</t>
+          <t>-3,74; -0,76</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,23</t>
+          <t>-5,65; -0,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,04</t>
+          <t>-3,6; 0,05</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,77</t>
+          <t>-3,9; -0,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_6-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,93</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.413935372175503</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.587426653482804</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.051737565921098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 0,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 5,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 0,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.56456237498872</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.116007309421045</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.084810086589331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,72%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,25%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,07%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.7832006146412506</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.765541133281197</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.730290267226291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 0,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 5,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 0,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.04590225495254042</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01676936019785662</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.03197233471437401</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1083461377650649</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.07248266277574432</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.07425508700331342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-20,94; 1,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 2,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 0,53</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.008282887003729891</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.05239792309838077</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.007833749835713489</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-5,14%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,74%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.497905442645377</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.941200340650252</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.217951349413262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-21,82; 1,59</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 3,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 0,56</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.32868427636437</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.446225612768458</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.238759737521372</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.131056541459408</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.928877799002041</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6970120162691585</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 4,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 2,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 2,1</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03650263468387167</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.03138208783233128</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03393837033066134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,37%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1698310223778135</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.100159441095962</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.09664607490478012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 4,47</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 3,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 2,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.02244654654758463</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.02068731642188104</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.007388157266182131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.06779393279159329</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.988539444632941</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.4615050102356077</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 0,97</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 1,73</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 0,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.813147643542202</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.31336470388706</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.310551338801276</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,31%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,26%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.487170399070341</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.09898887150263</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.412749562259712</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-6,8; 1,0</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 1,85</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 0,46</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0007163821216226142</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01063426584058791</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.004920902303544871</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.03958686709941087</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.05639567018734796</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.03491974384204303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 5,03</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,15; 1,17</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 2,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.048570397563638</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.03383335997589088</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.02613684993321991</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,07%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,95%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.311768798267444</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.245166215248628</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.750021255265966</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 5,59</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 1,22</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 2,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.713632143552267</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.045577114357856</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.525806920318604</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.9906480985812881</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.753217794422311</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4792429010145265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 0,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 1,45</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; -0,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02376450417484271</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01299738847009552</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.01813416967015011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-3,94%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-2,29%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-3,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.06837812109951709</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.05216799952729675</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.04648764878024385</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,55; 0,24</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 1,45</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; -0,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.01008349453095469</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.01841147799920011</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.004989527434428919</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-0.2218022982891532</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.704593665352194</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.9334787715969406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; -0,65</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 0,04</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; -0,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-5.039046374222061</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-5.950429117693608</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-3.721117675527381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-2,69%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-1,68%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-2,18%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>4.905757737746814</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1.248615970461214</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>2.121857038492035</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; -0,68</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 0,05</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; -0,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.002379448768000314</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.01756099103375345</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.009813342642149205</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.05339696793664148</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.06020417948314395</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.03865935452837248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.05442596234193955</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.01295589409278124</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.02261375043438128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-3.909352315705295</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-2.399084668549945</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-3.048908943778728</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-9.036718063070213</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-6.723648986240092</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-6.30005493342876</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.2143967003742758</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1.183654022013899</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-0.4535091255395449</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.04016766094525707</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.02474830955733655</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.03139814719192294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.0931471214128681</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.06976780320226716</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.06400431721736566</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.001895706518762678</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.01117790348634954</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.004723674054319155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-2.276567008492403</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-1.788046475635097</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-2.026661781921035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4.658895355624021</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-3.810040545612877</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-3.588273021810884</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>-0.3589239824435032</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-0.09666568146879906</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-0.6911491037582462</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.02377337228749851</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.01877870018505381</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.02122543834538685</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.04817932831998218</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.03991045120049726</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.0374776819529852</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>-0.003744796452235217</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.001067225968313774</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.007434941451347881</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
